--- a/biology/Botanique/Alexander_von_Bunge/Alexander_von_Bunge.xlsx
+++ b/biology/Botanique/Alexander_von_Bunge/Alexander_von_Bunge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexander von Bunge (en russe : Александр Андреевич Фон Бунге), né à Kiev le 24 septembre 1803[1] et mort à Dorpat le 16 juillet 1890[2] est un botaniste allemand de la Baltique sujet de l'Empire russe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexander von Bunge (en russe : Александр Андреевич Фон Бунге), né à Kiev le 24 septembre 1803 et mort à Dorpat le 16 juillet 1890 est un botaniste allemand de la Baltique sujet de l'Empire russe.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son doctorat de médecine à Dorpat en 1825. L'année suivante, il explore la Sibérie et les monts Altaï. Il fait deux voyages en Chine pour le compte de l’Académie impériale de Saint-Pétersbourg. Il dirige le jardin botanique de Dorpat à partir de 1836.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) « Tagebuch auf der Reise in den östlichen Theil des altaischen Gebirges im Sommer des Jahres 1826, Geführt Von Dr. A. V. Bunge », dans Karl Friedrich von Ledebour, Reise durch das Altai-Gebirge und die soongorische Kirgisen-Steppe, auf Kosten der kaiserlichen Universität Dorpat unternommen im Jahre 1826, Berlin, G. Reimer, 1830.
 (la) Karl Friedrich von Ledebour, Carl Anton von Meyer (coll.) et Alexander von Bunge (coll.), Flora Altaica, Berolini, G. Reimeri, 1829-33, 440 p. (lire en ligne).
@@ -574,7 +590,9 @@
           <t>Quelques espèces qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Famille des Bignoniaceae : Catalpa bungei C.A.Mey., 1837.
 Famille des Asphodelaceae : Eremurus bungei Baker, 1879.
